--- a/input/reg_partnership.xlsx
+++ b/input/reg_partnership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4A25C8-5A5B-4DE2-A255-9471F8FA44D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859261A-809F-4698-8EC1-87C88228573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" tabRatio="901" activeTab="2" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
+    <workbookView xWindow="-24615" yWindow="2715" windowWidth="21600" windowHeight="11295" tabRatio="901" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="191">
   <si>
     <t>dcpen</t>
   </si>
@@ -503,12 +503,6 @@
     <t>Dhesp_L1</t>
   </si>
   <si>
-    <t>Date modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This file contains regression estimates used by processes U1a (entering partnership if in continuous education), U1b (entering partnership if not in continuous education), and U2b(exiting partnership if not in continuous education). Worksheets prefixed by UK_ contain the estimates in a format readable by the simulation; other files contain the estimates and variance-covariance matrices in a format that is easier to read for the modeller. </t>
-  </si>
-  <si>
     <t>1o.drgnl</t>
   </si>
   <si>
@@ -587,10 +581,46 @@
     <t>Female member of a couple aged 18 or older who were in a partnership at t-1 and not in a partnership at t and were not in continuous education</t>
   </si>
   <si>
-    <t>Reestimated the process on ages 18+ instead of 16+</t>
+    <t>Year_transformed</t>
   </si>
   <si>
-    <t>Year_transformed</t>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>First edit:</t>
+  </si>
+  <si>
+    <t>Last edit:</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Model parameters governing projection of relationship status</t>
+  </si>
+  <si>
+    <t>05/03/2021 (PB)</t>
+  </si>
+  <si>
+    <t>U1a</t>
+  </si>
+  <si>
+    <t>U1b</t>
+  </si>
+  <si>
+    <t>U2b</t>
+  </si>
+  <si>
+    <t>entering partnership if in continuous education</t>
+  </si>
+  <si>
+    <t>entering partnership if not in continuous education</t>
+  </si>
+  <si>
+    <t>exiting partnership if not in continuous education</t>
   </si>
 </sst>
 </file>
@@ -601,7 +631,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +660,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -654,7 +691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,12 +779,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,6 +791,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2912273F-E984-4B39-93F8-C80E0A415E58}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,95 +1121,67 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37">
-        <v>44260</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1275,7 +1279,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
@@ -1287,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>4</v>
@@ -1311,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>12</v>
@@ -1329,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>17</v>
@@ -1338,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="17" t="s">
         <v>22</v>
@@ -1358,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
@@ -1702,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
@@ -2390,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -2906,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
@@ -3164,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" s="17">
         <v>0</v>
@@ -3336,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -3705,7 +3709,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
@@ -3717,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>94</v>
@@ -3726,7 +3730,7 @@
         <v>95</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>96</v>
@@ -3735,7 +3739,7 @@
         <v>97</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>4</v>
@@ -3777,7 +3781,7 @@
         <v>16</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB2" s="17" t="s">
         <v>17</v>
@@ -3806,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
@@ -4222,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
@@ -4534,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -4846,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
@@ -6302,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -7272,7 +7276,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>94</v>
@@ -7296,7 +7300,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>125</v>
@@ -7317,7 +7321,7 @@
         <v>130</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U2" s="17" t="s">
         <v>131</v>
@@ -7329,7 +7333,7 @@
         <v>133</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>134</v>
@@ -7359,7 +7363,7 @@
         <v>16</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AI2" s="17" t="s">
         <v>17</v>
@@ -7638,7 +7642,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="17">
         <v>0</v>
@@ -8638,7 +8642,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
@@ -9513,7 +9517,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="17">
         <v>0</v>
@@ -10013,7 +10017,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="17">
         <v>0</v>
@@ -11263,7 +11267,7 @@
         <v>122</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="17">
         <v>0</v>
@@ -12284,35 +12288,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="I1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -12741,7 +12745,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -12752,7 +12756,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="22">
         <v>-2.8747847724783344E-2</v>
@@ -12775,7 +12779,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" s="22">
         <v>-9.8812397436602806E-2</v>
@@ -12798,7 +12802,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="22">
         <v>-0.25825944167047715</v>
@@ -12821,7 +12825,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="22">
         <v>-0.22874403091675624</v>
@@ -12898,7 +12902,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B35" s="29">
         <v>1633.07</v>
@@ -12958,36 +12962,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="I1" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -13574,7 +13578,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -13586,7 +13590,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B34" s="22">
         <v>-0.28637297694086045</v>
@@ -13610,7 +13614,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B35" s="22">
         <v>-0.34196342223034443</v>
@@ -13634,7 +13638,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" s="22">
         <v>-0.44551958624417265</v>
@@ -13658,7 +13662,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="22">
         <v>-0.55408426674615263</v>
@@ -13744,7 +13748,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B42" s="29">
         <v>123.91</v>
@@ -13873,7 +13877,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
@@ -13885,7 +13889,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>94</v>
@@ -13894,7 +13898,7 @@
         <v>95</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>96</v>
@@ -13903,7 +13907,7 @@
         <v>97</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>4</v>
@@ -13933,7 +13937,7 @@
         <v>12</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X2" s="17" t="s">
         <v>14</v>
@@ -13953,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
@@ -14285,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
@@ -14534,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -14783,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
@@ -15613,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="17">
         <v>0</v>
@@ -16139,7 +16143,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>94</v>
@@ -16163,7 +16167,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>125</v>
@@ -16181,7 +16185,7 @@
         <v>130</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>131</v>
@@ -16190,7 +16194,7 @@
         <v>132</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>134</v>
@@ -16208,7 +16212,7 @@
         <v>12</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="17" t="s">
         <v>14</v>
@@ -16424,7 +16428,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="17">
         <v>0</v>
@@ -17208,7 +17212,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
@@ -17796,7 +17800,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="17">
         <v>0</v>
@@ -18090,7 +18094,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="17">
         <v>0</v>
@@ -18678,7 +18682,7 @@
         <v>122</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
@@ -19241,7 +19245,7 @@
         <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="U1" t="s">
         <v>58</v>
@@ -20354,7 +20358,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B19" s="16">
         <v>-0.19968540179069608</v>
@@ -20491,7 +20495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16007B2E-1D7E-440E-99E4-305504A05EB7}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20582,7 +20586,7 @@
         <v>84</v>
       </c>
       <c r="AB1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AC1" t="s">
         <v>58</v>
@@ -22815,7 +22819,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B27" s="16">
         <v>-7.453075665023021E-3</v>
@@ -23106,7 +23110,7 @@
         <v>84</v>
       </c>
       <c r="AG1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AH1" t="s">
         <v>58</v>
@@ -26234,7 +26238,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" s="16">
         <v>2.4829786428791109E-3</v>
@@ -26509,16 +26513,16 @@
         <v>73</v>
       </c>
       <c r="Q1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" t="s">
         <v>164</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>165</v>
-      </c>
-      <c r="S1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T1" t="s">
-        <v>167</v>
       </c>
       <c r="U1" t="s">
         <v>85</v>
@@ -27481,7 +27485,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B16" s="16">
         <v>-2.8747847724783344E-2</v>
@@ -27549,7 +27553,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" s="16">
         <v>-9.8812397436602806E-2</v>
@@ -27617,7 +27621,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" s="16">
         <v>-0.25825944167047715</v>
@@ -27685,7 +27689,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="16">
         <v>-0.22874403091675624</v>
@@ -27975,16 +27979,16 @@
         <v>149</v>
       </c>
       <c r="W1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" t="s">
         <v>164</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>165</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>167</v>
       </c>
       <c r="AA1" t="s">
         <v>85</v>
@@ -29709,7 +29713,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B22" s="16">
         <v>-0.28637297694086045</v>
@@ -29795,7 +29799,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B23" s="16">
         <v>-0.34196342223034443</v>
@@ -29881,7 +29885,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B24" s="16">
         <v>-0.44551958624417265</v>
@@ -29967,7 +29971,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="16">
         <v>-0.55408426674615263</v>
@@ -30249,31 +30253,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -30908,35 +30912,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -31743,37 +31747,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/input/reg_partnership.xlsx
+++ b/input/reg_partnership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DC5F1-D542-4C0C-B838-79E4153AE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C455D-D2C3-43C8-98EF-7FEE0D3DB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="11" r:id="rId1"/>
@@ -782,9 +782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -822,7 +822,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -928,7 +928,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1070,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2689,9 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7567E2AB-740D-439B-BD60-35967D8616C5}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5030,9 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16007B2E-1D7E-440E-99E4-305504A05EB7}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8094,9 +8090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345502B-89F0-429E-8CAB-FF0C1839ADA6}">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AN38" sqref="AN38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12753,9 +12747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FB09BE-C7C5-4E91-8820-E51F6BC76C0C}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13241,7 +13233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DAE17B-E888-4CFB-B83A-722E0C1E85FA}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
